--- a/ADC_time-F7.xlsx
+++ b/ADC_time-F7.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Java processing" sheetId="2" r:id="rId2"/>
     <sheet name="Triangle" sheetId="3" r:id="rId3"/>
+    <sheet name="TIM Generator" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="88">
   <si>
     <t>SysCLK</t>
   </si>
@@ -265,12 +266,27 @@
   </si>
   <si>
     <t>for STM32F7, Max ADCCLK = 36 MHz</t>
+  </si>
+  <si>
+    <t>SYSCLK</t>
+  </si>
+  <si>
+    <t>PRE</t>
+  </si>
+  <si>
+    <t>Pre out</t>
+  </si>
+  <si>
+    <t>PERIOD</t>
+  </si>
+  <si>
+    <t>Out</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -405,7 +421,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -421,9 +437,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -469,26 +485,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -593,7 +589,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
             </c:ext>
@@ -696,7 +692,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
             </c:ext>
@@ -799,7 +795,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
             </c:ext>
@@ -902,7 +898,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-C1DC-43B7-83C8-C2B45BFC5FBC}"/>
             </c:ext>
@@ -918,11 +914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98199808"/>
-        <c:axId val="98210176"/>
+        <c:axId val="127040128"/>
+        <c:axId val="127046400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98199808"/>
+        <c:axId val="127040128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -962,10 +958,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98210176"/>
+        <c:crossAx val="127046400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -973,7 +969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98210176"/>
+        <c:axId val="127046400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,10 +1017,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98199808"/>
+        <c:crossAx val="127040128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1064,7 +1060,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="ru-RU"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1094,7 +1090,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1684,9 +1680,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1724,9 +1720,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1761,7 +1757,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1796,7 +1792,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1972,7 +1968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
@@ -3587,4 +3583,142 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>216000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>107</v>
+      </c>
+      <c r="C6">
+        <f>$B$3/(B6+1)</f>
+        <v>2000000</v>
+      </c>
+      <c r="D6">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <f>C6/(D6+1)</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>107</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C11" si="0">$B$3/(B7+1)</f>
+        <v>2000000</v>
+      </c>
+      <c r="D7">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E11" si="1">C7/(D7+1)</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2160000</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D9">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="D11">
+        <v>199</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>